--- a/VFM_result_sheet_01.xlsx
+++ b/VFM_result_sheet_01.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshihiroashihara/VFMcalcProj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DC9FBA-4D72-F140-AB06-CF5A3C003EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D43819-47BD-974A-9629-8F30DF8B9586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="740" windowWidth="28440" windowHeight="17460" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="718" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="template_A01" sheetId="1" r:id="rId1"/>
+    <sheet name="template_A02(競争効果事前反映）" sheetId="2" r:id="rId2"/>
+    <sheet name="template_B01(BT DB)" sheetId="3" r:id="rId3"/>
+    <sheet name="template_B02( BT DB 競争効果事前反映）" sheetId="4" r:id="rId4"/>
+    <sheet name="template_C01(O) " sheetId="5" r:id="rId5"/>
+    <sheet name="template_C02(O 競争効果事前反映）" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="58">
   <si>
     <t>国直轄事業ケース  PFI事業研究会資料の「4-13　航路標識整備事業」</t>
   </si>
@@ -204,6 +209,25 @@
   </si>
   <si>
     <t>＜公的財政負担見込み：リスク調整後、現在価値化後、競争の効果反映後＞</t>
+  </si>
+  <si>
+    <t>　同上（過去の落札価格による部分）</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ドウジョウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">カコ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ラクサツ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カカク </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ブブン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -702,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -805,8 +829,8 @@
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <f>((D4*(1-H24/100)*(1-H12/100))+((D4+D5)*0.2))*((H8+J8)/100)</f>
-        <v>2.60686296</v>
+        <f>((D4*(1-H24/100)*(1-H12/100))+((D4+D5)*0.2))*((H8+J8)/100)*D32</f>
+        <v>54.744122159999996</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>11</v>
@@ -830,7 +854,7 @@
       </c>
       <c r="B9" s="6">
         <f>D8-B8</f>
-        <v>2.60686296</v>
+        <v>54.744122159999996</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="23"/>
@@ -841,7 +865,7 @@
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="B10" s="1"/>
       <c r="D10" s="6">
-        <f>((D4-D24)*(H12/100)*(1-H13/100))*(H10/100)</f>
+        <f>((D4-D24)*(H12/100)*(1-H13/100))*(H10/100)*(D32-D33)</f>
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -897,7 +921,7 @@
       <c r="B14" s="1"/>
       <c r="D14" s="17">
         <f>(D4+D5+D8+D19+D20+D21)/(1-(H15/100))</f>
-        <v>399.62342683278689</v>
+        <v>428.22014659200005</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -907,7 +931,7 @@
       <c r="B15" s="1"/>
       <c r="D15" s="20">
         <f>D14*(H15/100)</f>
-        <v>33.96799128078689</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -916,14 +940,14 @@
         <v>24</v>
       </c>
       <c r="H15" s="4">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1"/>
       <c r="D16" s="6">
         <f>D15-D17</f>
-        <v>19.708228541112554</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -933,7 +957,7 @@
       </c>
       <c r="H16" s="19">
         <f>(D16/D14)*100</f>
-        <v>4.9317000000000011</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -943,7 +967,7 @@
       <c r="B17" s="1"/>
       <c r="D17" s="6">
         <f>D15*(H17/100)</f>
-        <v>14.259762739674334</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -990,11 +1014,11 @@
       </c>
       <c r="B20" s="6">
         <f>D20</f>
-        <v>9.4712862960000006</v>
+        <v>14.685012216000002</v>
       </c>
       <c r="D20" s="6">
         <f>(D4+D5+D8)*0.1</f>
-        <v>9.4712862960000006</v>
+        <v>14.685012216000002</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -1006,11 +1030,11 @@
       </c>
       <c r="B21" s="6">
         <f>D21</f>
-        <v>9.4712862960000006</v>
+        <v>14.685012216000002</v>
       </c>
       <c r="D21" s="6">
         <f>(D4+D5+D8)*0.1</f>
-        <v>9.4712862960000006</v>
+        <v>14.685012216000002</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
@@ -1075,7 +1099,7 @@
       <c r="B26" s="1"/>
       <c r="D26" s="6">
         <f>(D16+D17)*(H26/100)</f>
-        <v>9.4431015760587567</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -1100,7 +1124,7 @@
       </c>
       <c r="D27" s="6">
         <f>SUM(D24:D26)*(1+H27/100)^D32</f>
-        <v>9.4431015760587567</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>44</v>
@@ -1125,25 +1149,25 @@
       </c>
       <c r="B29" s="6">
         <f>SUM(B4:B21)-B27</f>
-        <v>376.41643555200005</v>
+        <v>438.98114659200007</v>
       </c>
       <c r="D29" s="6">
         <f>D4+D5+D8+D10+SUM(D16:D21)-D27</f>
-        <v>390.18032525672817</v>
+        <v>428.22014659200005</v>
       </c>
       <c r="G29" t="s">
         <v>47</v>
       </c>
       <c r="H29" s="11">
         <f>B29-D29</f>
-        <v>-13.763889704728115</v>
+        <v>10.761000000000024</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1">
       <c r="A30" s="23"/>
       <c r="H30" s="12">
         <f>(H29/B29)*100</f>
-        <v>-3.6565591734972744</v>
+        <v>2.4513581240429816</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="9.5" customHeight="1">
@@ -1234,7 +1258,7 @@
       </c>
       <c r="B37" s="16">
         <f>(B4+B8-B$24+(B$9+B$19+B$20+B$21-B$25)*(B4/(B$4+B$5)))*0.95</f>
-        <v>320.31774159165451</v>
+        <v>373.63285249451167</v>
       </c>
       <c r="G37" s="23"/>
     </row>
@@ -1244,7 +1268,7 @@
       </c>
       <c r="B38" s="6">
         <f>(B$37/B$33)/(1-(B$35/100))^(A38-1)</f>
-        <v>320.31774159165451</v>
+        <v>373.63285249451167</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1290,11 +1314,11 @@
       </c>
       <c r="B46" s="16">
         <f>((B5+(B$9+B$19+B$20+B$21-B$25)*(B5/(B$4+B$5)))*0.95)</f>
-        <v>36.777222182745518</v>
+        <v>42.898586767888375</v>
       </c>
       <c r="D46" s="16">
         <f>D29/(D32)</f>
-        <v>18.580015488415626</v>
+        <v>20.391435552000001</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1303,11 +1327,11 @@
       </c>
       <c r="B47" s="6">
         <f t="shared" ref="B47:B66" si="0">(B$46/(H$32-H$33))/((1+(B$35/100))^$A47)</f>
-        <v>1.7839164815068647</v>
+        <v>2.080839482338396</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" ref="D47:D67" si="1">D$46/((1+(D$35/100))^$A47)</f>
-        <v>18.024850105176199</v>
+        <v>19.782145471478465</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1316,11 +1340,11 @@
       </c>
       <c r="B48" s="6">
         <f t="shared" si="0"/>
-        <v>1.7306135831459688</v>
+        <v>2.0186646122801668</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="1"/>
-        <v>17.486272899860495</v>
+        <v>19.191060798873171</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1329,11 +1353,11 @@
       </c>
       <c r="B49" s="6">
         <f t="shared" si="0"/>
-        <v>1.6789033596681888</v>
+        <v>1.9583475090028786</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="1"/>
-        <v>16.963788222604286</v>
+        <v>18.617637561964663</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1342,11 +1366,11 @@
       </c>
       <c r="B50" s="6">
         <f t="shared" si="0"/>
-        <v>1.6287382224177227</v>
+        <v>1.8998326629830018</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="1"/>
-        <v>16.456915233415099</v>
+        <v>18.06134804226296</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1355,11 +1379,11 @@
       </c>
       <c r="B51" s="6">
         <f t="shared" si="0"/>
-        <v>1.5800720046737706</v>
+        <v>1.8430662233052018</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="1"/>
-        <v>15.965187459657646</v>
+        <v>17.521680289350954</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1368,11 +1392,11 @@
       </c>
       <c r="B52" s="6">
         <f t="shared" si="0"/>
-        <v>1.5328599191635337</v>
+        <v>1.7879959481036105</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="1"/>
-        <v>15.488152366761394</v>
+        <v>16.99813764973899</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1381,11 +1405,11 @@
       </c>
       <c r="B53" s="6">
         <f t="shared" si="0"/>
-        <v>1.4870585168447168</v>
+        <v>1.7345711564839066</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="1"/>
-        <v>15.025370941755332</v>
+        <v>16.490238309797238</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1394,11 +1418,11 @@
       </c>
       <c r="B54" s="6">
         <f t="shared" si="0"/>
-        <v>1.4426256469195931</v>
+        <v>1.6827426818819424</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="1"/>
-        <v>14.576417289246537</v>
+        <v>15.997514852345009</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1407,11 +1431,11 @@
       </c>
       <c r="B55" s="6">
         <f t="shared" si="0"/>
-        <v>1.3995204180438428</v>
+        <v>1.6324628268160093</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="1"/>
-        <v>14.140878239470835</v>
+        <v>15.519513826489145</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1420,11 +1444,11 @@
       </c>
       <c r="B56" s="6">
         <f t="shared" si="0"/>
-        <v>1.3577031606944536</v>
+        <v>1.583685318991084</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="1"/>
-        <v>13.718352968054749</v>
+        <v>15.05579533031543</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1433,11 +1457,11 @@
       </c>
       <c r="B57" s="6">
         <f t="shared" si="0"/>
-        <v>1.3171353906620624</v>
+        <v>1.5363652687146723</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="1"/>
-        <v>13.308452627138873</v>
+        <v>14.605932606049119</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1446,11 +1470,11 @@
       </c>
       <c r="B58" s="6">
         <f t="shared" si="0"/>
-        <v>1.2777797736341308</v>
+        <v>1.4904591275850525</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="1"/>
-        <v>12.910799987523159</v>
+        <v>14.169511647311911</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1459,11 +1483,11 @@
       </c>
       <c r="B59" s="6">
         <f t="shared" si="0"/>
-        <v>1.2396000908363707</v>
+        <v>1.4459246484139043</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="1"/>
-        <v>12.525029091504811</v>
+        <v>13.746130818113999</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1472,11 +1496,11 @@
       </c>
       <c r="B60" s="6">
         <f t="shared" si="0"/>
-        <v>1.2025612057007866</v>
+        <v>1.4027208463464342</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="1"/>
-        <v>12.150784916089261</v>
+        <v>13.335400483230501</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1485,11 +1509,11 @@
       </c>
       <c r="B61" s="6">
         <f t="shared" si="0"/>
-        <v>1.1666290315296728</v>
+        <v>1.3608079611432231</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="1"/>
-        <v>11.787723046264324</v>
+        <v>12.936942649622141</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1498,11 +1522,11 @@
       </c>
       <c r="B62" s="6">
         <f t="shared" si="0"/>
-        <v>1.1317705001257981</v>
+        <v>1.3201474205890791</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="1"/>
-        <v>11.435509358036787</v>
+        <v>12.550390618570177</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1511,11 +1535,11 @@
       </c>
       <c r="B63" s="6">
         <f t="shared" si="0"/>
-        <v>1.0979535313599127</v>
+        <v>1.2807018049952263</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="1"/>
-        <v>11.09381971093984</v>
+        <v>12.17538864820545</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1524,11 +1548,11 @@
       </c>
       <c r="B64" s="6">
         <f t="shared" si="0"/>
-        <v>1.0651470036475676</v>
+        <v>1.2424348127621521</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="1"/>
-        <v>10.762339649728212</v>
+        <v>11.811591626120926</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -1537,11 +1561,11 @@
       </c>
       <c r="B65" s="6">
         <f t="shared" si="0"/>
-        <v>1.0333207253080789</v>
+        <v>1.2053112269714319</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="1"/>
-        <v>10.440764114986624</v>
+        <v>11.458664751766518</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1550,11 +1574,11 @@
       </c>
       <c r="B66" s="6">
         <f t="shared" si="0"/>
-        <v>1.0024454067792772</v>
+        <v>1.1692968829757779</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="1"/>
-        <v>10.128797162385162</v>
+        <v>11.116283228333835</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -1563,7 +1587,7 @@
       </c>
       <c r="D67" s="6">
         <f t="shared" si="1"/>
-        <v>9.826151690323206</v>
+        <v>10.784131963847337</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -1612,25 +1636,25 @@
       </c>
       <c r="B76" s="18">
         <f>SUM(B38:B44)+SUM(B47:B69)</f>
-        <v>347.47409556431683</v>
+        <v>405.30923091719484</v>
       </c>
       <c r="D76" s="10">
         <f>D38+SUM(D47:D73)</f>
-        <v>284.21635708092288</v>
+        <v>311.92544117378793</v>
       </c>
       <c r="G76" t="s">
         <v>47</v>
       </c>
       <c r="H76" s="11">
         <f>B76-D76</f>
-        <v>63.25773848339395</v>
+        <v>93.383789743406908</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19" customHeight="1" thickBot="1">
       <c r="A77" s="23"/>
       <c r="H77" s="12">
         <f>(H76/B76)*100</f>
-        <v>18.205022846569307</v>
+        <v>23.040133956999693</v>
       </c>
     </row>
   </sheetData>
@@ -1644,4 +1668,4870 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="81" fitToWidth="0" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C1BFCA-A3FF-934A-A614-C96D7CF5449D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J78"/>
+  <sheetViews>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="35.5" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>91.8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6">
+        <f>B4*H5</f>
+        <v>82.62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B7*(B33-B34)</f>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <f>B6*H6</f>
+        <v>9.4860000000000007</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="9.5" customHeight="1">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <f>(H11/100)*((B4-B25)*(H13/100)*(1-(H14/100)))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <f>((D5*(1-H25/100)*(1-H13/100))+((D5+D6)*0.2))*((H9+J9)/100)*D33</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <f>D9-B9</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="23"/>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19" customHeight="1">
+      <c r="B11" s="1"/>
+      <c r="D11" s="6">
+        <f>((D5-D25)*(H13/100)*(1-H14/100))*(H11/100)*(D33-D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19" customHeight="1">
+      <c r="B15" s="1"/>
+      <c r="D15" s="17">
+        <f>(D5+D6+D9+D20+D21+D22)/(1-(H16/100))</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1"/>
+      <c r="D16" s="20">
+        <f>D15*(H16/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="1"/>
+      <c r="D17" s="6">
+        <f>D16-D18</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="19">
+        <f>(D17/D15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="1"/>
+      <c r="D18" s="6">
+        <f>D16*(H18/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
+        <v>41.98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6">
+        <f>D20</f>
+        <v>252</v>
+      </c>
+      <c r="D20" s="6">
+        <f>H20*D33</f>
+        <v>252</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6">
+        <f>D21</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D21" s="6">
+        <f>(D5+D6+D9)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6">
+        <f>D22</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D22" s="6">
+        <f>(D5+D6+D9)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="6">
+        <f>B4*($H25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <f>D5*($H25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6">
+        <f>(B4-B25)*($H13/100)*($H14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <f>(D5-D25)*($H13/100)*($H14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="1"/>
+      <c r="D27" s="6">
+        <f>(D17+D18)*(H27/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="6">
+        <f>SUM(B25:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <f>SUM(D25:D27)*(1+H28/100)^D33</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="9.5" customHeight="1" thickBot="1">
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6">
+        <f>SUM(B4:B22)-B28</f>
+        <v>438.98114659200007</v>
+      </c>
+      <c r="D30" s="6">
+        <f>D5+D6+D9+D11+SUM(D17:D22)-D28</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="11">
+        <f>B30-D30</f>
+        <v>10.761000000000024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="19" customHeight="1" thickBot="1">
+      <c r="A31" s="23"/>
+      <c r="H31" s="12">
+        <f>(H30/B30)*100</f>
+        <v>2.4513581240429816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="9.5" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="8">
+        <f>D33</f>
+        <v>21</v>
+      </c>
+      <c r="D33" s="8">
+        <f>H33</f>
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8">
+        <f>D34</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <f>H34</f>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8">
+        <f>H36+H37</f>
+        <v>3.08</v>
+      </c>
+      <c r="D36" s="8">
+        <f>H36+H37</f>
+        <v>3.08</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1">
+      <c r="G37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="14">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="16">
+        <f>(B4+B9-B$25+(B$10+B$20+B$21+B$22-B$26)*(B4/(B$4+B$6)))*0.95</f>
+        <v>373.63285249451167</v>
+      </c>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6">
+        <f>(B$38/B$34)/(1-(B$36/100))^(A39-1)</f>
+        <v>373.63285249451167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="16">
+        <f>((B6+(B$10+B$20+B$21+B$22-B$26)*(B6/(B$4+B$6)))*0.95)</f>
+        <v>42.898586767888375</v>
+      </c>
+      <c r="D47" s="16">
+        <f>D30/(D33)</f>
+        <v>20.391435552000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" ref="B48:B67" si="0">(B$47/(H$33-H$34))/((1+(B$36/100))^$A48)</f>
+        <v>2.080839482338396</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:D68" si="1">D$47/((1+(D$36/100))^$A48)</f>
+        <v>19.782145471478465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0186646122801668</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
+        <v>19.191060798873171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="21" customFormat="1">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9583475090028786</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
+        <v>18.617637561964663</v>
+      </c>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" s="21" customFormat="1">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8998326629830018</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="1"/>
+        <v>18.06134804226296</v>
+      </c>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" s="21" customFormat="1">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8430662233052018</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="1"/>
+        <v>17.521680289350954</v>
+      </c>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" s="21" customFormat="1">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7879959481036105</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="1"/>
+        <v>16.99813764973899</v>
+      </c>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" s="21" customFormat="1">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7345711564839066</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="1"/>
+        <v>16.490238309797238</v>
+      </c>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" s="21" customFormat="1">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6827426818819424</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="1"/>
+        <v>15.997514852345009</v>
+      </c>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" s="21" customFormat="1">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6324628268160093</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="1"/>
+        <v>15.519513826489145</v>
+      </c>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" s="21" customFormat="1">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="0"/>
+        <v>1.583685318991084</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="1"/>
+        <v>15.05579533031543</v>
+      </c>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" s="21" customFormat="1">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5363652687146723</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="1"/>
+        <v>14.605932606049119</v>
+      </c>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" s="21" customFormat="1">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4904591275850525</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="1"/>
+        <v>14.169511647311911</v>
+      </c>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" s="21" customFormat="1">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4459246484139043</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" si="1"/>
+        <v>13.746130818113999</v>
+      </c>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" s="21" customFormat="1">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4027208463464342</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="1"/>
+        <v>13.335400483230501</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" s="21" customFormat="1">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3608079611432231</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="1"/>
+        <v>12.936942649622141</v>
+      </c>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" s="21" customFormat="1">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3201474205890791</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" si="1"/>
+        <v>12.550390618570177</v>
+      </c>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" s="21" customFormat="1">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2807018049952263</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="1"/>
+        <v>12.17538864820545</v>
+      </c>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" s="21" customFormat="1">
+      <c r="A65">
+        <v>18</v>
+      </c>
+      <c r="B65" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2424348127621521</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="1"/>
+        <v>11.811591626120926</v>
+      </c>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" s="21" customFormat="1">
+      <c r="A66">
+        <v>19</v>
+      </c>
+      <c r="B66" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2053112269714319</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="1"/>
+        <v>11.458664751766518</v>
+      </c>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" s="21" customFormat="1">
+      <c r="A67">
+        <v>20</v>
+      </c>
+      <c r="B67" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1692968829757779</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="1"/>
+        <v>11.116283228333835</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" s="21" customFormat="1">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="1"/>
+        <v>10.784131963847337</v>
+      </c>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" s="21" customFormat="1">
+      <c r="A69">
+        <v>22</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" s="21" customFormat="1">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" s="21" customFormat="1">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" s="21" customFormat="1">
+      <c r="A72">
+        <v>25</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" s="21" customFormat="1">
+      <c r="A73">
+        <v>26</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" s="21" customFormat="1">
+      <c r="A74">
+        <v>27</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" s="21" customFormat="1">
+      <c r="D75" s="1"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" s="21" customFormat="1" ht="9.5" customHeight="1" thickBot="1">
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" s="21" customFormat="1">
+      <c r="A77" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="18">
+        <f>SUM(B39:B45)+SUM(B48:B70)</f>
+        <v>405.30923091719484</v>
+      </c>
+      <c r="D77" s="10">
+        <f>D39+SUM(D48:D74)</f>
+        <v>311.92544117378793</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="11">
+        <f>B77-D77</f>
+        <v>93.383789743406908</v>
+      </c>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" s="21" customFormat="1" ht="19" customHeight="1" thickBot="1">
+      <c r="A78" s="23"/>
+      <c r="H78" s="12">
+        <f>(H77/B77)*100</f>
+        <v>23.040133956999693</v>
+      </c>
+      <c r="J78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A77:A78"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="81" fitToWidth="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8423903-6C66-A648-A6E7-4C71A985F151}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J77"/>
+  <sheetViews>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="35.5" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>91.8</v>
+      </c>
+      <c r="D4" s="6">
+        <f>B4*H4</f>
+        <v>82.62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <f>B6*(B32-B33)</f>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <f>B5*H5</f>
+        <v>9.4860000000000007</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="9.5" customHeight="1">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <f>(H10/100)*((B4-B24)*(H12/100)*(1-(H13/100)))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <f>((D4*(1-H24/100)*(1-H12/100))+((D4+D5)*0.2))*((H8+J8)/100)*D32</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <f>D8-B8</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="23"/>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19" customHeight="1">
+      <c r="B10" s="1"/>
+      <c r="D10" s="6">
+        <f>((D4-D24)*(H12/100)*(1-H13/100))*(H10/100)*(D32-D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19" customHeight="1">
+      <c r="B14" s="1"/>
+      <c r="D14" s="17">
+        <f>(D4+D5+D8+D19+D20+D21)/(1-(H15/100))</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="1"/>
+      <c r="D15" s="20">
+        <f>D14*(H15/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1"/>
+      <c r="D16" s="6">
+        <f>D15-D17</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="19">
+        <f>(D16/D14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="1"/>
+      <c r="D17" s="6">
+        <f>D15*(H17/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7">
+        <v>41.98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6">
+        <f>D19</f>
+        <v>252</v>
+      </c>
+      <c r="D19" s="6">
+        <f>H19*D32</f>
+        <v>252</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6">
+        <f>D20</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D20" s="6">
+        <f>(D4+D5+D8)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6">
+        <f>D21</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D21" s="6">
+        <f>(D4+D5+D8)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6">
+        <f>B4*($H24/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <f>D4*($H24/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="6">
+        <f>(B4-B24)*($H12/100)*($H13/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <f>(D4-D24)*($H12/100)*($H13/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="1"/>
+      <c r="D26" s="6">
+        <f>(D16+D17)*(H26/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="6">
+        <f>SUM(B24:B26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <f>SUM(D24:D26)*(1+H27/100)^D32</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="9.5" customHeight="1" thickBot="1">
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="6">
+        <f>SUM(B4:B21)-B27</f>
+        <v>438.98114659200007</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D4+D5+D8+D10+SUM(D16:D21)-D27</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="11">
+        <f>B29-D29</f>
+        <v>10.761000000000024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1">
+      <c r="A30" s="23"/>
+      <c r="H30" s="12">
+        <f>(H29/B29)*100</f>
+        <v>2.4513581240429816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="9.5" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="8">
+        <f>D32</f>
+        <v>21</v>
+      </c>
+      <c r="D32" s="8">
+        <f>H32</f>
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="8">
+        <f>D33</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <f>H33</f>
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="8">
+        <f>H35+H36</f>
+        <v>3.08</v>
+      </c>
+      <c r="D35" s="8">
+        <f>H35+H36</f>
+        <v>3.08</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1">
+      <c r="G36" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="14">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="16">
+        <f>(B4+B8-B$24+(B$9+B$19+B$20+B$21-B$25)*(B4/(B$4+B$5)))*0.95</f>
+        <v>373.63285249451167</v>
+      </c>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6">
+        <f>(B$37/B$33)/(1-(B$35/100))^(A38-1)</f>
+        <v>373.63285249451167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="16">
+        <f>((B5+(B$9+B$19+B$20+B$21-B$25)*(B5/(B$4+B$5)))*0.95)</f>
+        <v>42.898586767888375</v>
+      </c>
+      <c r="D46" s="16">
+        <f>D29/(D32)</f>
+        <v>20.391435552000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" ref="B47:B66" si="0">(B$46/(H$32-H$33))/((1+(B$35/100))^$A47)</f>
+        <v>2.080839482338396</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" ref="D47:D67" si="1">D$46/((1+(D$35/100))^$A47)</f>
+        <v>19.782145471478465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0186646122801668</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="1"/>
+        <v>19.191060798873171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9583475090028786</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
+        <v>18.617637561964663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8998326629830018</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
+        <v>18.06134804226296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8430662233052018</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="1"/>
+        <v>17.521680289350954</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7879959481036105</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="1"/>
+        <v>16.99813764973899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7345711564839066</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="1"/>
+        <v>16.490238309797238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6827426818819424</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="1"/>
+        <v>15.997514852345009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6324628268160093</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="1"/>
+        <v>15.519513826489145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="0"/>
+        <v>1.583685318991084</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="1"/>
+        <v>15.05579533031543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5363652687146723</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="1"/>
+        <v>14.605932606049119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4904591275850525</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="1"/>
+        <v>14.169511647311911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4459246484139043</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="1"/>
+        <v>13.746130818113999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4027208463464342</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" si="1"/>
+        <v>13.335400483230501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3608079611432231</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="1"/>
+        <v>12.936942649622141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3201474205890791</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="1"/>
+        <v>12.550390618570177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>17</v>
+      </c>
+      <c r="B63" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2807018049952263</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" si="1"/>
+        <v>12.17538864820545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>18</v>
+      </c>
+      <c r="B64" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2424348127621521</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="1"/>
+        <v>11.811591626120926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>19</v>
+      </c>
+      <c r="B65" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2053112269714319</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="1"/>
+        <v>11.458664751766518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1692968829757779</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="1"/>
+        <v>11.116283228333835</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>21</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="1"/>
+        <v>10.784131963847337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>22</v>
+      </c>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>24</v>
+      </c>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>25</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>26</v>
+      </c>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>27</v>
+      </c>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="9.5" customHeight="1" thickBot="1"/>
+    <row r="76" spans="1:8">
+      <c r="A76" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="18">
+        <f>SUM(B38:B44)+SUM(B47:B69)</f>
+        <v>405.30923091719484</v>
+      </c>
+      <c r="D76" s="10">
+        <f>D38+SUM(D47:D73)</f>
+        <v>311.92544117378793</v>
+      </c>
+      <c r="G76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="11">
+        <f>B76-D76</f>
+        <v>93.383789743406908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19" customHeight="1" thickBot="1">
+      <c r="A77" s="23"/>
+      <c r="H77" s="12">
+        <f>(H76/B76)*100</f>
+        <v>23.040133956999693</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A76:A77"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="81" fitToWidth="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB33F60C-E748-3E41-9914-537CE434F653}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J78"/>
+  <sheetViews>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="35.5" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>91.8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6">
+        <f>B4*H5</f>
+        <v>82.62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B7*(B33-B34)</f>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <f>B6*H6</f>
+        <v>9.4860000000000007</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="9.5" customHeight="1">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <f>(H11/100)*((B4-B25)*(H13/100)*(1-(H14/100)))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <f>((D5*(1-H25/100)*(1-H13/100))+((D5+D6)*0.2))*((H9+J9)/100)*D33</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <f>D9-B9</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="23"/>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19" customHeight="1">
+      <c r="B11" s="1"/>
+      <c r="D11" s="6">
+        <f>((D5-D25)*(H13/100)*(1-H14/100))*(H11/100)*(D33-D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19" customHeight="1">
+      <c r="B15" s="1"/>
+      <c r="D15" s="17">
+        <f>(D5+D6+D9+D20+D21+D22)/(1-(H16/100))</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1"/>
+      <c r="D16" s="20">
+        <f>D15*(H16/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="1"/>
+      <c r="D17" s="6">
+        <f>D16-D18</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="19">
+        <f>(D17/D15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="1"/>
+      <c r="D18" s="6">
+        <f>D16*(H18/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
+        <v>41.98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6">
+        <f>D20</f>
+        <v>252</v>
+      </c>
+      <c r="D20" s="6">
+        <f>H20*D33</f>
+        <v>252</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6">
+        <f>D21</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D21" s="6">
+        <f>(D5+D6+D9)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6">
+        <f>D22</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D22" s="6">
+        <f>(D5+D6+D9)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="6">
+        <f>B4*($H25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <f>D5*($H25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6">
+        <f>(B4-B25)*($H13/100)*($H14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <f>(D5-D25)*($H13/100)*($H14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="1"/>
+      <c r="D27" s="6">
+        <f>(D17+D18)*(H27/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="6">
+        <f>SUM(B25:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <f>SUM(D25:D27)*(1+H28/100)^D33</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="9.5" customHeight="1" thickBot="1">
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6">
+        <f>SUM(B4:B22)-B28</f>
+        <v>438.98114659200007</v>
+      </c>
+      <c r="D30" s="6">
+        <f>D5+D6+D9+D11+SUM(D17:D22)-D28</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="11">
+        <f>B30-D30</f>
+        <v>10.761000000000024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="19" customHeight="1" thickBot="1">
+      <c r="A31" s="23"/>
+      <c r="H31" s="12">
+        <f>(H30/B30)*100</f>
+        <v>2.4513581240429816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="9.5" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="8">
+        <f>D33</f>
+        <v>21</v>
+      </c>
+      <c r="D33" s="8">
+        <f>H33</f>
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8">
+        <f>D34</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <f>H34</f>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8">
+        <f>H36+H37</f>
+        <v>3.08</v>
+      </c>
+      <c r="D36" s="8">
+        <f>H36+H37</f>
+        <v>3.08</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1">
+      <c r="G37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="14">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="16">
+        <f>(B4+B9-B$25+(B$10+B$20+B$21+B$22-B$26)*(B4/(B$4+B$6)))*0.95</f>
+        <v>373.63285249451167</v>
+      </c>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6">
+        <f>(B$38/B$34)/(1-(B$36/100))^(A39-1)</f>
+        <v>373.63285249451167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="16">
+        <f>((B6+(B$10+B$20+B$21+B$22-B$26)*(B6/(B$4+B$6)))*0.95)</f>
+        <v>42.898586767888375</v>
+      </c>
+      <c r="D47" s="16">
+        <f>D30/(D33)</f>
+        <v>20.391435552000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" ref="B48:B67" si="0">(B$47/(H$33-H$34))/((1+(B$36/100))^$A48)</f>
+        <v>2.080839482338396</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:D68" si="1">D$47/((1+(D$36/100))^$A48)</f>
+        <v>19.782145471478465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0186646122801668</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
+        <v>19.191060798873171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="21" customFormat="1">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9583475090028786</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
+        <v>18.617637561964663</v>
+      </c>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" s="21" customFormat="1">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8998326629830018</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="1"/>
+        <v>18.06134804226296</v>
+      </c>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" s="21" customFormat="1">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8430662233052018</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="1"/>
+        <v>17.521680289350954</v>
+      </c>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" s="21" customFormat="1">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7879959481036105</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="1"/>
+        <v>16.99813764973899</v>
+      </c>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" s="21" customFormat="1">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7345711564839066</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="1"/>
+        <v>16.490238309797238</v>
+      </c>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" s="21" customFormat="1">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6827426818819424</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="1"/>
+        <v>15.997514852345009</v>
+      </c>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" s="21" customFormat="1">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6324628268160093</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="1"/>
+        <v>15.519513826489145</v>
+      </c>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" s="21" customFormat="1">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="0"/>
+        <v>1.583685318991084</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="1"/>
+        <v>15.05579533031543</v>
+      </c>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" s="21" customFormat="1">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5363652687146723</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="1"/>
+        <v>14.605932606049119</v>
+      </c>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" s="21" customFormat="1">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4904591275850525</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="1"/>
+        <v>14.169511647311911</v>
+      </c>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" s="21" customFormat="1">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4459246484139043</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" si="1"/>
+        <v>13.746130818113999</v>
+      </c>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" s="21" customFormat="1">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4027208463464342</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="1"/>
+        <v>13.335400483230501</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" s="21" customFormat="1">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3608079611432231</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="1"/>
+        <v>12.936942649622141</v>
+      </c>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" s="21" customFormat="1">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3201474205890791</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" si="1"/>
+        <v>12.550390618570177</v>
+      </c>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" s="21" customFormat="1">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2807018049952263</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="1"/>
+        <v>12.17538864820545</v>
+      </c>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" s="21" customFormat="1">
+      <c r="A65">
+        <v>18</v>
+      </c>
+      <c r="B65" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2424348127621521</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="1"/>
+        <v>11.811591626120926</v>
+      </c>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" s="21" customFormat="1">
+      <c r="A66">
+        <v>19</v>
+      </c>
+      <c r="B66" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2053112269714319</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="1"/>
+        <v>11.458664751766518</v>
+      </c>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" s="21" customFormat="1">
+      <c r="A67">
+        <v>20</v>
+      </c>
+      <c r="B67" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1692968829757779</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="1"/>
+        <v>11.116283228333835</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" s="21" customFormat="1">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="1"/>
+        <v>10.784131963847337</v>
+      </c>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" s="21" customFormat="1">
+      <c r="A69">
+        <v>22</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" s="21" customFormat="1">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" s="21" customFormat="1">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" s="21" customFormat="1">
+      <c r="A72">
+        <v>25</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" s="21" customFormat="1">
+      <c r="A73">
+        <v>26</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" s="21" customFormat="1">
+      <c r="A74">
+        <v>27</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" s="21" customFormat="1">
+      <c r="D75" s="1"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" s="21" customFormat="1" ht="9.5" customHeight="1" thickBot="1">
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" s="21" customFormat="1">
+      <c r="A77" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="18">
+        <f>SUM(B39:B45)+SUM(B48:B70)</f>
+        <v>405.30923091719484</v>
+      </c>
+      <c r="D77" s="10">
+        <f>D39+SUM(D48:D74)</f>
+        <v>311.92544117378793</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="11">
+        <f>B77-D77</f>
+        <v>93.383789743406908</v>
+      </c>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" s="21" customFormat="1" ht="19" customHeight="1" thickBot="1">
+      <c r="A78" s="23"/>
+      <c r="H78" s="12">
+        <f>(H77/B77)*100</f>
+        <v>23.040133956999693</v>
+      </c>
+      <c r="J78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A77:A78"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="81" fitToWidth="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451D7A2D-EA63-CA4F-9839-215C97E30DAF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="35.5" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>91.8</v>
+      </c>
+      <c r="D4" s="6">
+        <f>B4*H4</f>
+        <v>82.62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <f>B6*(B32-B33)</f>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <f>B5*H5</f>
+        <v>9.4860000000000007</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="9.5" customHeight="1">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <f>(H10/100)*((B4-B24)*(H12/100)*(1-(H13/100)))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <f>((D4*(1-H24/100)*(1-H12/100))+((D4+D5)*0.2))*((H8+J8)/100)*D32</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <f>D8-B8</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="23"/>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19" customHeight="1">
+      <c r="B10" s="1"/>
+      <c r="D10" s="6">
+        <f>((D4-D24)*(H12/100)*(1-H13/100))*(H10/100)*(D32-D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19" customHeight="1">
+      <c r="B14" s="1"/>
+      <c r="D14" s="17">
+        <f>(D4+D5+D8+D19+D20+D21)/(1-(H15/100))</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="1"/>
+      <c r="D15" s="20">
+        <f>D14*(H15/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1"/>
+      <c r="D16" s="6">
+        <f>D15-D17</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="19">
+        <f>(D16/D14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="1"/>
+      <c r="D17" s="6">
+        <f>D15*(H17/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7">
+        <v>41.98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6">
+        <f>D19</f>
+        <v>252</v>
+      </c>
+      <c r="D19" s="6">
+        <f>H19*D32</f>
+        <v>252</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6">
+        <f>D20</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D20" s="6">
+        <f>(D4+D5+D8)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6">
+        <f>D21</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D21" s="6">
+        <f>(D4+D5+D8)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6">
+        <f>B4*($H24/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <f>D4*($H24/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="6">
+        <f>(B4-B24)*($H12/100)*($H13/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <f>(D4-D24)*($H12/100)*($H13/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="1"/>
+      <c r="D26" s="6">
+        <f>(D16+D17)*(H26/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="6">
+        <f>SUM(B24:B26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <f>SUM(D24:D26)*(1+H27/100)^D32</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="9.5" customHeight="1" thickBot="1">
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="6">
+        <f>SUM(B4:B21)-B27</f>
+        <v>438.98114659200007</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D4+D5+D8+D10+SUM(D16:D21)-D27</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="11">
+        <f>B29-D29</f>
+        <v>10.761000000000024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1">
+      <c r="A30" s="23"/>
+      <c r="H30" s="12">
+        <f>(H29/B29)*100</f>
+        <v>2.4513581240429816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="9.5" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="8">
+        <f>D32</f>
+        <v>21</v>
+      </c>
+      <c r="D32" s="8">
+        <f>H32</f>
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="8">
+        <f>D33</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <f>H33</f>
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="8">
+        <f>H35+H36</f>
+        <v>3.08</v>
+      </c>
+      <c r="D35" s="8">
+        <f>H35+H36</f>
+        <v>3.08</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1">
+      <c r="G36" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="14">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="16">
+        <f>(B4+B8-B$24+(B$9+B$19+B$20+B$21-B$25)*(B4/(B$4+B$5)))*0.95</f>
+        <v>373.63285249451167</v>
+      </c>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6">
+        <f>(B$37/B$33)/(1-(B$35/100))^(A38-1)</f>
+        <v>373.63285249451167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="16">
+        <f>((B5+(B$9+B$19+B$20+B$21-B$25)*(B5/(B$4+B$5)))*0.95)</f>
+        <v>42.898586767888375</v>
+      </c>
+      <c r="D46" s="16">
+        <f>D29/(D32)</f>
+        <v>20.391435552000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" ref="B47:B66" si="0">(B$46/(H$32-H$33))/((1+(B$35/100))^$A47)</f>
+        <v>2.080839482338396</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" ref="D47:D67" si="1">D$46/((1+(D$35/100))^$A47)</f>
+        <v>19.782145471478465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0186646122801668</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="1"/>
+        <v>19.191060798873171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9583475090028786</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
+        <v>18.617637561964663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8998326629830018</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
+        <v>18.06134804226296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8430662233052018</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="1"/>
+        <v>17.521680289350954</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7879959481036105</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="1"/>
+        <v>16.99813764973899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7345711564839066</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="1"/>
+        <v>16.490238309797238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6827426818819424</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="1"/>
+        <v>15.997514852345009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6324628268160093</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="1"/>
+        <v>15.519513826489145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="0"/>
+        <v>1.583685318991084</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="1"/>
+        <v>15.05579533031543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5363652687146723</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="1"/>
+        <v>14.605932606049119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4904591275850525</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="1"/>
+        <v>14.169511647311911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4459246484139043</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="1"/>
+        <v>13.746130818113999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4027208463464342</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" si="1"/>
+        <v>13.335400483230501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3608079611432231</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="1"/>
+        <v>12.936942649622141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3201474205890791</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="1"/>
+        <v>12.550390618570177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>17</v>
+      </c>
+      <c r="B63" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2807018049952263</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" si="1"/>
+        <v>12.17538864820545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>18</v>
+      </c>
+      <c r="B64" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2424348127621521</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="1"/>
+        <v>11.811591626120926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>19</v>
+      </c>
+      <c r="B65" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2053112269714319</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="1"/>
+        <v>11.458664751766518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1692968829757779</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="1"/>
+        <v>11.116283228333835</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>21</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="1"/>
+        <v>10.784131963847337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>22</v>
+      </c>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>24</v>
+      </c>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>25</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>26</v>
+      </c>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>27</v>
+      </c>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="9.5" customHeight="1" thickBot="1"/>
+    <row r="76" spans="1:8">
+      <c r="A76" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="18">
+        <f>SUM(B38:B44)+SUM(B47:B69)</f>
+        <v>405.30923091719484</v>
+      </c>
+      <c r="D76" s="10">
+        <f>D38+SUM(D47:D73)</f>
+        <v>311.92544117378793</v>
+      </c>
+      <c r="G76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="11">
+        <f>B76-D76</f>
+        <v>93.383789743406908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19" customHeight="1" thickBot="1">
+      <c r="A77" s="23"/>
+      <c r="H77" s="12">
+        <f>(H76/B76)*100</f>
+        <v>23.040133956999693</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A76:A77"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="81" fitToWidth="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E587107E-41F9-5D4A-B208-33CCC95E1287}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J78"/>
+  <sheetViews>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="35.5" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>91.8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6">
+        <f>B4*H5</f>
+        <v>82.62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B7*(B33-B34)</f>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <f>B6*H6</f>
+        <v>9.4860000000000007</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="9.5" customHeight="1">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <f>(H11/100)*((B4-B25)*(H13/100)*(1-(H14/100)))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <f>((D5*(1-H25/100)*(1-H13/100))+((D5+D6)*0.2))*((H9+J9)/100)*D33</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <f>D9-B9</f>
+        <v>54.744122159999996</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="23"/>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19" customHeight="1">
+      <c r="B11" s="1"/>
+      <c r="D11" s="6">
+        <f>((D5-D25)*(H13/100)*(1-H14/100))*(H11/100)*(D33-D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19" customHeight="1">
+      <c r="B15" s="1"/>
+      <c r="D15" s="17">
+        <f>(D5+D6+D9+D20+D21+D22)/(1-(H16/100))</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1"/>
+      <c r="D16" s="20">
+        <f>D15*(H16/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="1"/>
+      <c r="D17" s="6">
+        <f>D16-D18</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="19">
+        <f>(D17/D15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="1"/>
+      <c r="D18" s="6">
+        <f>D16*(H18/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
+        <v>41.98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6">
+        <f>D20</f>
+        <v>252</v>
+      </c>
+      <c r="D20" s="6">
+        <f>H20*D33</f>
+        <v>252</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6">
+        <f>D21</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D21" s="6">
+        <f>(D5+D6+D9)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6">
+        <f>D22</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="D22" s="6">
+        <f>(D5+D6+D9)*0.1</f>
+        <v>14.685012216000002</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="9.5" customHeight="1">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="6">
+        <f>B4*($H25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <f>D5*($H25/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6">
+        <f>(B4-B25)*($H13/100)*($H14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <f>(D5-D25)*($H13/100)*($H14/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="1"/>
+      <c r="D27" s="6">
+        <f>(D17+D18)*(H27/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="6">
+        <f>SUM(B25:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <f>SUM(D25:D27)*(1+H28/100)^D33</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="9.5" customHeight="1" thickBot="1">
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6">
+        <f>SUM(B4:B22)-B28</f>
+        <v>438.98114659200007</v>
+      </c>
+      <c r="D30" s="6">
+        <f>D5+D6+D9+D11+SUM(D17:D22)-D28</f>
+        <v>428.22014659200005</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="11">
+        <f>B30-D30</f>
+        <v>10.761000000000024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="19" customHeight="1" thickBot="1">
+      <c r="A31" s="23"/>
+      <c r="H31" s="12">
+        <f>(H30/B30)*100</f>
+        <v>2.4513581240429816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="9.5" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="8">
+        <f>D33</f>
+        <v>21</v>
+      </c>
+      <c r="D33" s="8">
+        <f>H33</f>
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8">
+        <f>D34</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <f>H34</f>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8">
+        <f>H36+H37</f>
+        <v>3.08</v>
+      </c>
+      <c r="D36" s="8">
+        <f>H36+H37</f>
+        <v>3.08</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1">
+      <c r="G37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="14">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="16">
+        <f>(B4+B9-B$25+(B$10+B$20+B$21+B$22-B$26)*(B4/(B$4+B$6)))*0.95</f>
+        <v>373.63285249451167</v>
+      </c>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6">
+        <f>(B$38/B$34)/(1-(B$36/100))^(A39-1)</f>
+        <v>373.63285249451167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="9.5" customHeight="1"/>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="16">
+        <f>((B6+(B$10+B$20+B$21+B$22-B$26)*(B6/(B$4+B$6)))*0.95)</f>
+        <v>42.898586767888375</v>
+      </c>
+      <c r="D47" s="16">
+        <f>D30/(D33)</f>
+        <v>20.391435552000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" ref="B48:B67" si="0">(B$47/(H$33-H$34))/((1+(B$36/100))^$A48)</f>
+        <v>2.080839482338396</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:D68" si="1">D$47/((1+(D$36/100))^$A48)</f>
+        <v>19.782145471478465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0186646122801668</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
+        <v>19.191060798873171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="21" customFormat="1">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9583475090028786</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
+        <v>18.617637561964663</v>
+      </c>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" s="21" customFormat="1">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8998326629830018</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="1"/>
+        <v>18.06134804226296</v>
+      </c>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" s="21" customFormat="1">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8430662233052018</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="1"/>
+        <v>17.521680289350954</v>
+      </c>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" s="21" customFormat="1">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7879959481036105</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="1"/>
+        <v>16.99813764973899</v>
+      </c>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" s="21" customFormat="1">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7345711564839066</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="1"/>
+        <v>16.490238309797238</v>
+      </c>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" s="21" customFormat="1">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6827426818819424</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="1"/>
+        <v>15.997514852345009</v>
+      </c>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" s="21" customFormat="1">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6324628268160093</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="1"/>
+        <v>15.519513826489145</v>
+      </c>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" s="21" customFormat="1">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="0"/>
+        <v>1.583685318991084</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="1"/>
+        <v>15.05579533031543</v>
+      </c>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" s="21" customFormat="1">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5363652687146723</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="1"/>
+        <v>14.605932606049119</v>
+      </c>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" s="21" customFormat="1">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4904591275850525</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="1"/>
+        <v>14.169511647311911</v>
+      </c>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" s="21" customFormat="1">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4459246484139043</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" si="1"/>
+        <v>13.746130818113999</v>
+      </c>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" s="21" customFormat="1">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4027208463464342</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="1"/>
+        <v>13.335400483230501</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" s="21" customFormat="1">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3608079611432231</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="1"/>
+        <v>12.936942649622141</v>
+      </c>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" s="21" customFormat="1">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3201474205890791</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" si="1"/>
+        <v>12.550390618570177</v>
+      </c>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" s="21" customFormat="1">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2807018049952263</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="1"/>
+        <v>12.17538864820545</v>
+      </c>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" s="21" customFormat="1">
+      <c r="A65">
+        <v>18</v>
+      </c>
+      <c r="B65" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2424348127621521</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="1"/>
+        <v>11.811591626120926</v>
+      </c>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" s="21" customFormat="1">
+      <c r="A66">
+        <v>19</v>
+      </c>
+      <c r="B66" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2053112269714319</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="1"/>
+        <v>11.458664751766518</v>
+      </c>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" s="21" customFormat="1">
+      <c r="A67">
+        <v>20</v>
+      </c>
+      <c r="B67" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1692968829757779</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="1"/>
+        <v>11.116283228333835</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" s="21" customFormat="1">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="1"/>
+        <v>10.784131963847337</v>
+      </c>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" s="21" customFormat="1">
+      <c r="A69">
+        <v>22</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" s="21" customFormat="1">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" s="21" customFormat="1">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" s="21" customFormat="1">
+      <c r="A72">
+        <v>25</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" s="21" customFormat="1">
+      <c r="A73">
+        <v>26</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" s="21" customFormat="1">
+      <c r="A74">
+        <v>27</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" s="21" customFormat="1">
+      <c r="D75" s="1"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" s="21" customFormat="1" ht="9.5" customHeight="1" thickBot="1">
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" s="21" customFormat="1">
+      <c r="A77" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="18">
+        <f>SUM(B39:B45)+SUM(B48:B70)</f>
+        <v>405.30923091719484</v>
+      </c>
+      <c r="D77" s="10">
+        <f>D39+SUM(D48:D74)</f>
+        <v>311.92544117378793</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="11">
+        <f>B77-D77</f>
+        <v>93.383789743406908</v>
+      </c>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" s="21" customFormat="1" ht="19" customHeight="1" thickBot="1">
+      <c r="A78" s="23"/>
+      <c r="H78" s="12">
+        <f>(H77/B77)*100</f>
+        <v>23.040133956999693</v>
+      </c>
+      <c r="J78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A77:A78"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="81" fitToWidth="0" orientation="portrait"/>
+</worksheet>
 </file>